--- a/Filexel/Rupbasan.xlsx
+++ b/Filexel/Rupbasan.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3401739-BE5D-42C8-99BA-EB43CF652C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11517F69-845F-4BD4-8A5D-A10B5EAED5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TambahubahPenerimaan" sheetId="1" r:id="rId1"/>
-    <sheet name="IndexPenerimaan" sheetId="7" r:id="rId2"/>
-    <sheet name="Login" sheetId="12" r:id="rId3"/>
-    <sheet name="Barangbasan" sheetId="8" r:id="rId4"/>
-    <sheet name="Pengeluaran" sheetId="2" r:id="rId5"/>
-    <sheet name="Pemeliharan" sheetId="3" r:id="rId6"/>
-    <sheet name="Pengamanan" sheetId="4" r:id="rId7"/>
-    <sheet name="Mutasi" sheetId="5" r:id="rId8"/>
-    <sheet name="IndexMutasi" sheetId="11" r:id="rId9"/>
-    <sheet name="Penempatan" sheetId="6" r:id="rId10"/>
+    <sheet name="Penempatan" sheetId="6" r:id="rId2"/>
+    <sheet name="IndexPenerimaan" sheetId="7" r:id="rId3"/>
+    <sheet name="Login" sheetId="12" r:id="rId4"/>
+    <sheet name="Barangbasan" sheetId="8" r:id="rId5"/>
+    <sheet name="Pengeluaran" sheetId="2" r:id="rId6"/>
+    <sheet name="Pemeliharan" sheetId="3" r:id="rId7"/>
+    <sheet name="Pengamanan" sheetId="4" r:id="rId8"/>
+    <sheet name="Mutasi" sheetId="5" r:id="rId9"/>
+    <sheet name="IndexMutasi" sheetId="11" r:id="rId10"/>
     <sheet name="Gudang" sheetId="13" r:id="rId11"/>
     <sheet name="Sektor Gudang" sheetId="14" r:id="rId12"/>
     <sheet name="LIST" sheetId="9" r:id="rId13"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="2310">
   <si>
     <t>TanggalPenerimaan</t>
   </si>
@@ -6521,9 +6521,6 @@
     <t>Simon Danuarta</t>
   </si>
   <si>
-    <t>boy candra</t>
-  </si>
-  <si>
     <t>Roger Danuarta</t>
   </si>
   <si>
@@ -6548,9 +6545,6 @@
     <t>Petugas Pemeliharaan (Eksternal)</t>
   </si>
   <si>
-    <t>01/12/2022</t>
-  </si>
-  <si>
     <t>Pemeliharaan Basan dan Baran Umum</t>
   </si>
   <si>
@@ -6572,9 +6566,6 @@
     <t>jmlhDetail Pemeliharaan</t>
   </si>
   <si>
-    <t>Handphone Kualitas 2</t>
-  </si>
-  <si>
     <t>Jumlah Rusak Parah</t>
   </si>
   <si>
@@ -6740,36 +6731,6 @@
     <t>Jumlah NORUT</t>
   </si>
   <si>
-    <t>No1</t>
-  </si>
-  <si>
-    <t>No2</t>
-  </si>
-  <si>
-    <t>No3</t>
-  </si>
-  <si>
-    <t>No4</t>
-  </si>
-  <si>
-    <t>No5</t>
-  </si>
-  <si>
-    <t>No6</t>
-  </si>
-  <si>
-    <t>No7</t>
-  </si>
-  <si>
-    <t>No8</t>
-  </si>
-  <si>
-    <t>No9</t>
-  </si>
-  <si>
-    <t>No10</t>
-  </si>
-  <si>
     <t>NoRegrup-Rub13</t>
   </si>
   <si>
@@ -6803,18 +6764,6 @@
     <t>Keterangan Penempatan Baran Basan umum terbuka</t>
   </si>
   <si>
-    <t>Keterangan Penempatan Baran Basan umum tertutup</t>
-  </si>
-  <si>
-    <t>Keterangan Penempatan Baran Basan Berharga</t>
-  </si>
-  <si>
-    <t>Keterangan Penempatan Baran Basan Berbahaya</t>
-  </si>
-  <si>
-    <t>Keterangan Penempatan Baran Basan hewan Tumbuhan</t>
-  </si>
-  <si>
     <t xml:space="preserve">No-IZIN001 </t>
   </si>
   <si>
@@ -6885,6 +6834,135 @@
   </si>
   <si>
     <t>NREGIIns-11</t>
+  </si>
+  <si>
+    <t>GUT1</t>
+  </si>
+  <si>
+    <t>GB1</t>
+  </si>
+  <si>
+    <t>GHT1</t>
+  </si>
+  <si>
+    <t>GUT2</t>
+  </si>
+  <si>
+    <t>GUT3</t>
+  </si>
+  <si>
+    <t>GUT4</t>
+  </si>
+  <si>
+    <t>GUT5</t>
+  </si>
+  <si>
+    <t>GUT6</t>
+  </si>
+  <si>
+    <t>GUT7</t>
+  </si>
+  <si>
+    <t>GUT8</t>
+  </si>
+  <si>
+    <t>GUT9</t>
+  </si>
+  <si>
+    <t>GUT10</t>
+  </si>
+  <si>
+    <t>GB2</t>
+  </si>
+  <si>
+    <t>GB3</t>
+  </si>
+  <si>
+    <t>GB4</t>
+  </si>
+  <si>
+    <t>GB5</t>
+  </si>
+  <si>
+    <t>GB6</t>
+  </si>
+  <si>
+    <t>GB7</t>
+  </si>
+  <si>
+    <t>GB8</t>
+  </si>
+  <si>
+    <t>GB9</t>
+  </si>
+  <si>
+    <t>GB10</t>
+  </si>
+  <si>
+    <t>GHT2</t>
+  </si>
+  <si>
+    <t>GHT3</t>
+  </si>
+  <si>
+    <t>GHT4</t>
+  </si>
+  <si>
+    <t>GHT5</t>
+  </si>
+  <si>
+    <t>GHT6</t>
+  </si>
+  <si>
+    <t>GHT7</t>
+  </si>
+  <si>
+    <t>GHT8</t>
+  </si>
+  <si>
+    <t>GHT9</t>
+  </si>
+  <si>
+    <t>GHT10</t>
+  </si>
+  <si>
+    <t>Sektor Gudang Umum Terbuka 2</t>
+  </si>
+  <si>
+    <t>Keterangan Sektor Gudang Umum Terbuka 2</t>
+  </si>
+  <si>
+    <t>Baris  Gudang Umum Terbuka 2</t>
+  </si>
+  <si>
+    <t>Keterangan Penempatan Hewan dan Tumbuhan</t>
+  </si>
+  <si>
+    <t>Keterangan Penempatan Baran Basan Terbuka</t>
+  </si>
+  <si>
+    <t>Cahyo</t>
+  </si>
+  <si>
+    <t>oli</t>
+  </si>
+  <si>
+    <t>Picisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keterangan Bahan Pemeliharaan 001 </t>
+  </si>
+  <si>
+    <t>vario</t>
+  </si>
+  <si>
+    <t>Cuci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keterangan Bahan Pemeliharaan 002 </t>
+  </si>
+  <si>
+    <t>21/08/2022</t>
   </si>
 </sst>
 </file>
@@ -7666,8 +7744,8 @@
   </sheetPr>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7798,16 +7876,16 @@
         <v>288</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>2262</v>
+        <v>2245</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>197</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>2273</v>
+        <v>2256</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>2260</v>
+        <v>2243</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>288</v>
@@ -7816,7 +7894,7 @@
         <v>193</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>2261</v>
+        <v>2244</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>288</v>
@@ -7854,7 +7932,7 @@
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="20" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="X2" s="58">
         <v>2</v>
@@ -7880,13 +7958,13 @@
         <v>289</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>2263</v>
+        <v>2246</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>2274</v>
+        <v>2257</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>308</v>
@@ -7936,7 +8014,7 @@
       </c>
       <c r="V3" s="20"/>
       <c r="W3" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X3" s="58">
         <v>2</v>
@@ -7962,13 +8040,13 @@
         <v>290</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>2264</v>
+        <v>2247</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>2275</v>
+        <v>2258</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>309</v>
@@ -8018,7 +8096,7 @@
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="X4" s="58">
         <v>2</v>
@@ -8044,13 +8122,13 @@
         <v>287</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>2265</v>
+        <v>2248</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>2276</v>
+        <v>2259</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>310</v>
@@ -8100,7 +8178,7 @@
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="X5" s="58">
         <v>2</v>
@@ -8126,13 +8204,13 @@
         <v>291</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>2266</v>
+        <v>2249</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>197</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>2277</v>
+        <v>2260</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>311</v>
@@ -8181,8 +8259,8 @@
         <v>213</v>
       </c>
       <c r="V6" s="20"/>
-      <c r="W6" s="24" t="s">
-        <v>227</v>
+      <c r="W6" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="X6" s="58">
         <v>2</v>
@@ -8208,13 +8286,13 @@
         <v>292</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>2267</v>
+        <v>2250</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>282</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>2278</v>
+        <v>2261</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>312</v>
@@ -8264,7 +8342,7 @@
       </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="X7" s="58">
         <v>2</v>
@@ -8290,13 +8368,13 @@
         <v>293</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2268</v>
+        <v>2251</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>283</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>2279</v>
+        <v>2262</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>313</v>
@@ -8346,7 +8424,7 @@
       </c>
       <c r="V8" s="20"/>
       <c r="W8" s="20" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="X8" s="58">
         <v>2</v>
@@ -8372,13 +8450,13 @@
         <v>294</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>2269</v>
+        <v>2252</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>284</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>2280</v>
+        <v>2263</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>314</v>
@@ -8428,7 +8506,7 @@
       </c>
       <c r="V9" s="20"/>
       <c r="W9" s="20" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="X9" s="58">
         <v>2</v>
@@ -8454,13 +8532,13 @@
         <v>295</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>2270</v>
+        <v>2253</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>207</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>2281</v>
+        <v>2264</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>315</v>
@@ -8510,7 +8588,7 @@
       </c>
       <c r="V10" s="20"/>
       <c r="W10" s="20" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="X10" s="58">
         <v>2</v>
@@ -8536,13 +8614,13 @@
         <v>296</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>2271</v>
+        <v>2254</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>285</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>2282</v>
+        <v>2265</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>316</v>
@@ -8592,7 +8670,7 @@
       </c>
       <c r="V11" s="20"/>
       <c r="W11" s="20" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="X11" s="58">
         <v>2</v>
@@ -8618,13 +8696,13 @@
         <v>297</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>2272</v>
+        <v>2255</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>286</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>2283</v>
+        <v>2266</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>317</v>
@@ -8674,7 +8752,7 @@
       </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="X12" s="58">
         <v>2</v>
@@ -8709,7 +8787,7 @@
         <v>260</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>2260</v>
+        <v>2243</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>288</v>
@@ -8718,7 +8796,7 @@
         <v>193</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>2261</v>
+        <v>2244</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>288</v>
@@ -8920,7 +8998,7 @@
       </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="X16" s="58">
         <v>2</v>
@@ -9002,7 +9080,7 @@
       </c>
       <c r="V17" s="20"/>
       <c r="W17" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X17" s="58">
         <v>2</v>
@@ -9083,8 +9161,8 @@
         <v>213</v>
       </c>
       <c r="V18" s="20"/>
-      <c r="W18" s="24" t="s">
-        <v>227</v>
+      <c r="W18" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="X18" s="58">
         <v>2</v>
@@ -9166,7 +9244,7 @@
       </c>
       <c r="V19" s="20"/>
       <c r="W19" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="X19" s="58">
         <v>2</v>
@@ -9248,7 +9326,7 @@
       </c>
       <c r="V20" s="20"/>
       <c r="W20" s="20" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="X20" s="58">
         <v>2</v>
@@ -9330,7 +9408,7 @@
       </c>
       <c r="V21" s="20"/>
       <c r="W21" s="20" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="X21" s="58">
         <v>2</v>
@@ -9412,7 +9490,7 @@
       </c>
       <c r="V22" s="20"/>
       <c r="W22" s="20" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="X22" s="58">
         <v>2</v>
@@ -9494,7 +9572,7 @@
       </c>
       <c r="V23" s="20"/>
       <c r="W23" s="20" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="X23" s="58">
         <v>2</v>
@@ -9576,7 +9654,7 @@
       </c>
       <c r="V24" s="20"/>
       <c r="W24" s="20" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="X24" s="58">
         <v>2</v>
@@ -9602,16 +9680,16 @@
         <v>292</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>283</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>292</v>
@@ -9620,7 +9698,7 @@
         <v>257</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>292</v>
@@ -9629,10 +9707,10 @@
         <v>237</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>252</v>
@@ -9658,7 +9736,7 @@
       </c>
       <c r="V26" s="20"/>
       <c r="W26" s="20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="X26" s="58">
         <v>2</v>
@@ -9684,7 +9762,7 @@
         <v>295</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>2245</v>
+        <v>2232</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>207</v>
@@ -9693,7 +9771,7 @@
         <v>262</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>2246</v>
+        <v>2233</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>295</v>
@@ -9702,19 +9780,19 @@
         <v>257</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>2247</v>
+        <v>2234</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>295</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>2249</v>
+        <v>2236</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>2250</v>
+        <v>2237</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>214</v>
@@ -9778,180 +9856,91 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3E9FA9-9679-493E-AC22-808129A0F009}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2068</v>
+        <v>2130</v>
       </c>
       <c r="B1" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2079</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2081</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2080</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>2083</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>2125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>611</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2187</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>2084</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>2126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>2188</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>2085</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>2127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>2189</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>2086</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>2128</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>2190</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>2087</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="G11" s="33"/>
+        <v>2129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC40E39F-B705-4505-A73C-E8A2EA37BA75}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6639C8A4-74C1-4337-B73B-BCBD5178B694}">
           <x14:formula1>
-            <xm:f>LIST!$J$2:$J$11</xm:f>
+            <xm:f>LIST!$K$2:$K$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G11</xm:sqref>
+          <xm:sqref>A2:A7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E2E7719B-935C-40B1-BE87-1E7621389933}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC86917E-E9BD-4572-BC23-76BAB0959FCF}">
           <x14:formula1>
-            <xm:f>LIST!$C$10:$C$14</xm:f>
+            <xm:f>LIST!$H$2:$H$12</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9963,11 +9952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F5F531-5FA5-469E-92D0-2A5C456B8A3A}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
@@ -9984,22 +9973,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="22" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>2102</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>2205</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>2208</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>4</v>
@@ -10019,13 +10008,13 @@
         <v>2074</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="E2" s="22">
         <v>15000</v>
@@ -10034,30 +10023,30 @@
         <v>10000</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="I2" s="74">
         <v>10</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="73" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="E3" s="22">
         <v>15000</v>
@@ -10066,30 +10055,30 @@
         <v>10000</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="I3" s="74">
         <v>10</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="73" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="E4" s="22">
         <v>15000</v>
@@ -10098,30 +10087,30 @@
         <v>10000</v>
       </c>
       <c r="G4" s="73" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H4" s="38" t="s">
         <v>2211</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>2214</v>
       </c>
       <c r="I4" s="74">
         <v>10</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="73" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="B5" s="73" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>2201</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>2204</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="E5" s="22">
         <v>15000</v>
@@ -10130,30 +10119,30 @@
         <v>10000</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="I5" s="74">
         <v>10</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="73" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="E6" s="22">
         <v>15000</v>
@@ -10162,16 +10151,16 @@
         <v>10000</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="I6" s="74">
         <v>10</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
   </sheetData>
@@ -10182,10 +10171,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CABCBD8-4FA4-4A8F-A80C-1BBEEE304064}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10197,8 +10186,8 @@
     <col min="5" max="5" width="12" style="70" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -10206,22 +10195,22 @@
         <v>2076</v>
       </c>
       <c r="B1" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="F1" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="H1" s="75" t="s">
         <v>2081</v>
@@ -10247,243 +10236,293 @@
         <v>15000</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="G2" s="70">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>2235</v>
+        <v>2267</v>
       </c>
       <c r="I2" t="s">
-        <v>2236</v>
+        <v>2270</v>
       </c>
       <c r="J2" t="s">
-        <v>2237</v>
+        <v>2271</v>
       </c>
       <c r="K2" t="s">
-        <v>2238</v>
+        <v>2272</v>
       </c>
       <c r="L2" t="s">
-        <v>2239</v>
+        <v>2273</v>
       </c>
       <c r="M2" t="s">
-        <v>2240</v>
+        <v>2274</v>
       </c>
       <c r="N2" t="s">
-        <v>2241</v>
+        <v>2275</v>
       </c>
       <c r="O2" t="s">
-        <v>2242</v>
+        <v>2276</v>
       </c>
       <c r="P2" t="s">
-        <v>2243</v>
+        <v>2277</v>
       </c>
       <c r="Q2" t="s">
-        <v>2244</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="33" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="C3" s="6">
         <v>15000</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="G3" s="70">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>2235</v>
+        <v>2267</v>
       </c>
       <c r="I3" t="s">
-        <v>2236</v>
+        <v>2270</v>
       </c>
       <c r="J3" t="s">
-        <v>2237</v>
+        <v>2271</v>
       </c>
       <c r="K3" t="s">
-        <v>2238</v>
+        <v>2272</v>
       </c>
       <c r="L3" t="s">
-        <v>2239</v>
+        <v>2273</v>
       </c>
       <c r="M3" t="s">
-        <v>2240</v>
+        <v>2274</v>
       </c>
       <c r="N3" t="s">
-        <v>2241</v>
+        <v>2275</v>
       </c>
       <c r="O3" t="s">
-        <v>2242</v>
+        <v>2276</v>
       </c>
       <c r="P3" t="s">
-        <v>2243</v>
+        <v>2277</v>
       </c>
       <c r="Q3" t="s">
-        <v>2244</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="33" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C4" s="6">
         <v>15000</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="G4" s="70">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>2235</v>
+        <v>2268</v>
       </c>
       <c r="I4" t="s">
-        <v>2236</v>
+        <v>2279</v>
       </c>
       <c r="J4" t="s">
-        <v>2237</v>
+        <v>2280</v>
       </c>
       <c r="K4" t="s">
-        <v>2238</v>
+        <v>2281</v>
       </c>
       <c r="L4" t="s">
-        <v>2239</v>
+        <v>2282</v>
       </c>
       <c r="M4" t="s">
-        <v>2240</v>
+        <v>2283</v>
       </c>
       <c r="N4" t="s">
-        <v>2241</v>
+        <v>2284</v>
       </c>
       <c r="O4" t="s">
-        <v>2242</v>
+        <v>2285</v>
       </c>
       <c r="P4" t="s">
-        <v>2243</v>
+        <v>2286</v>
       </c>
       <c r="Q4" t="s">
-        <v>2244</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="33" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="C5" s="6">
         <v>15000</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="G5" s="70">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>2235</v>
+        <v>2268</v>
       </c>
       <c r="I5" t="s">
-        <v>2236</v>
+        <v>2279</v>
       </c>
       <c r="J5" t="s">
-        <v>2237</v>
+        <v>2280</v>
       </c>
       <c r="K5" t="s">
-        <v>2238</v>
+        <v>2281</v>
       </c>
       <c r="L5" t="s">
-        <v>2239</v>
+        <v>2282</v>
       </c>
       <c r="M5" t="s">
-        <v>2240</v>
+        <v>2283</v>
       </c>
       <c r="N5" t="s">
-        <v>2241</v>
+        <v>2284</v>
       </c>
       <c r="O5" t="s">
-        <v>2242</v>
+        <v>2285</v>
       </c>
       <c r="P5" t="s">
-        <v>2243</v>
+        <v>2286</v>
       </c>
       <c r="Q5" t="s">
-        <v>2244</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="33" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="C6" s="6">
         <v>15000</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="G6" s="70">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>2235</v>
+        <v>2269</v>
       </c>
       <c r="I6" t="s">
-        <v>2236</v>
+        <v>2288</v>
       </c>
       <c r="J6" t="s">
-        <v>2237</v>
+        <v>2289</v>
       </c>
       <c r="K6" t="s">
-        <v>2238</v>
+        <v>2290</v>
       </c>
       <c r="L6" t="s">
-        <v>2239</v>
+        <v>2291</v>
       </c>
       <c r="M6" t="s">
-        <v>2240</v>
+        <v>2292</v>
       </c>
       <c r="N6" t="s">
-        <v>2241</v>
+        <v>2293</v>
       </c>
       <c r="O6" t="s">
-        <v>2242</v>
+        <v>2294</v>
       </c>
       <c r="P6" t="s">
-        <v>2243</v>
+        <v>2295</v>
       </c>
       <c r="Q6" t="s">
-        <v>2244</v>
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="33" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G7" s="70">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2271</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2272</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2273</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2274</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2275</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2276</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2278</v>
       </c>
     </row>
   </sheetData>
@@ -10814,7 +10853,7 @@
         <v>354</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>489</v>
@@ -10837,7 +10876,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>490</v>
@@ -10857,7 +10896,7 @@
         <v>356</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>491</v>
@@ -10874,7 +10913,7 @@
         <v>357</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>492</v>
@@ -18487,7 +18526,7 @@
   <dimension ref="A1:CL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19216,12 +19255,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="CJ1:CL1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CG1:CI1"/>
     <mergeCell ref="AZ1:BB1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
@@ -19234,18 +19279,12 @@
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="CJ1:CL1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -19276,10 +19315,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>2288</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>2269</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E2E7719B-935C-40B1-BE87-1E7621389933}">
+          <x14:formula1>
+            <xm:f>LIST!$C$10:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA77EED-9292-4D91-8108-0243EE8C8AAC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -19399,7 +19650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CF4A24-DB7E-4C3D-98A0-1237CA9786E9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -19476,12 +19727,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D424E70A-F282-4695-8098-E7353E557E46}">
   <dimension ref="A1:CD12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19562,7 +19813,7 @@
     <col min="77" max="77" width="21" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="82" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="84" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -20945,7 +21196,7 @@
     </row>
     <row r="8" spans="1:82">
       <c r="A8" s="22" t="s">
-        <v>2251</v>
+        <v>2238</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>519</v>
@@ -21111,7 +21362,7 @@
     </row>
     <row r="9" spans="1:82">
       <c r="A9" s="22" t="s">
-        <v>2252</v>
+        <v>2239</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>519</v>
@@ -21325,7 +21576,7 @@
     </row>
     <row r="10" spans="1:82" s="22" customFormat="1">
       <c r="A10" s="22" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>519</v>
@@ -21512,18 +21763,18 @@
         <v>3</v>
       </c>
       <c r="CB10" s="22" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="CC10" s="22" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="CD10" s="22" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="11" spans="1:82">
       <c r="A11" s="22" t="s">
-        <v>2253</v>
+        <v>2240</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>519</v>
@@ -21883,10 +22134,10 @@
         <v>2</v>
       </c>
       <c r="CB12" s="22" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="CC12" s="22" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="CD12" s="22"/>
     </row>
@@ -21933,7 +22184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22755,15 +23006,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:BI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22787,7 +23038,7 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="9.140625" style="9"/>
     <col min="53" max="53" width="9.140625" style="9"/>
     <col min="56" max="56" width="9.140625" style="9"/>
@@ -22796,28 +23047,28 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2165</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" t="s">
         <v>2166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2167</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F1" t="s">
         <v>2168</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2169</v>
       </c>
-      <c r="G1" t="s">
-        <v>2170</v>
-      </c>
       <c r="H1" s="68" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="I1" t="s">
         <v>329</v>
@@ -22832,7 +23083,7 @@
         <v>334</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="N1" s="46" t="s">
         <v>335</v>
@@ -22841,19 +23092,19 @@
         <v>4</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="Q1" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="R1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="S1" t="s">
         <v>332</v>
       </c>
       <c r="T1" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="U1" t="s">
         <v>4</v>
@@ -22861,25 +23112,25 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="54" t="s">
-        <v>2171</v>
+        <v>2309</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>2172</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" t="s">
         <v>2174</v>
       </c>
-      <c r="D2" t="s">
-        <v>2176</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>2161</v>
+        <v>211</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>2163</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>2162</v>
+        <v>2302</v>
       </c>
       <c r="H2" s="69">
         <v>2</v>
@@ -22903,10 +23154,25 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="P2" s="70">
         <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>480</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -22914,28 +23180,28 @@
         <v>591</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>2173</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" t="s">
         <v>2175</v>
       </c>
-      <c r="D3" t="s">
-        <v>2177</v>
-      </c>
       <c r="E3" s="24" t="s">
-        <v>2161</v>
+        <v>212</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>2163</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>2162</v>
+        <v>216</v>
       </c>
       <c r="H3" s="69">
         <v>2</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>2179</v>
+        <v>2306</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>559</v>
@@ -22953,10 +23219,25 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="P3" s="70">
         <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2307</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>492</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2308</v>
       </c>
     </row>
   </sheetData>
@@ -22965,7 +23246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23133,7 +23414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23322,97 +23603,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3E9FA9-9679-493E-AC22-808129A0F009}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6639C8A4-74C1-4337-B73B-BCBD5178B694}">
-          <x14:formula1>
-            <xm:f>LIST!$K$2:$K$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC86917E-E9BD-4572-BC23-76BAB0959FCF}">
-          <x14:formula1>
-            <xm:f>LIST!$H$2:$H$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>